--- a/2022/Realme/AUGUST/31.08.2022/realme Bank Statement Aug-20222.xlsx
+++ b/2022/Realme/AUGUST/31.08.2022/realme Bank Statement Aug-20222.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\AUGUST\31.08.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\August\31.08.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Aug-2022" sheetId="7" r:id="rId1"/>
@@ -1815,7 +1815,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2484,6 +2484,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,12 +2523,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2529,12 +2535,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2632,6 +2632,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3185,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3814,20 +3829,20 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="15"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="283">
         <v>0</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="284">
         <v>200000</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="285">
         <f t="shared" si="0"/>
         <v>439807</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="286"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="15"/>
@@ -3835,20 +3850,20 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="15"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="282" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="283">
         <v>200000</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="283">
         <v>200000</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="285">
         <f t="shared" si="0"/>
         <v>439807</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="286"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="15"/>
@@ -3856,20 +3871,20 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="15"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="282" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="283">
         <v>400000</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="283">
         <v>420000</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="285">
         <f t="shared" si="0"/>
         <v>419807</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="286"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="15"/>
@@ -3877,20 +3892,20 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="15"/>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="282" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="283">
         <v>0</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="283">
         <v>170000</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="285">
         <f t="shared" si="0"/>
         <v>249807</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="286"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="15"/>
@@ -4166,67 +4181,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
     </row>
     <row r="2" spans="1:24" s="58" customFormat="1" ht="18">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="233"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
     </row>
     <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="238" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="236"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="S3" s="41"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4235,52 +4250,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="232" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="241" t="s">
+      <c r="L4" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="241" t="s">
+      <c r="M4" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="247" t="s">
+      <c r="N4" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="245" t="s">
+      <c r="O4" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="245" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="60" t="s">
@@ -4293,22 +4308,22 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="238"/>
-      <c r="B5" s="240"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="244"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="246"/>
       <c r="Q5" s="65" t="s">
         <v>30</v>
       </c>
@@ -7448,6 +7463,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7464,9 +7482,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14579,7 +14594,7 @@
   </sheetPr>
   <dimension ref="A1:AB211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
